--- a/00.프로젝트 관리/프로젝트 계획서_250121.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250121.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>공통 하단영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,34 +366,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행성 3D 모델링 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mercury 와 동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 우주복입은 사람이 커서를 따라다니는 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공통 1. 행성 반대편에서 타이핑 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. position: fixed
-2. 스크롤 위치값에 따라 좌,우 위치 이동
-3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. NASA 이미지 발췌
-2. footer 위에 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어쿼리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,17 +541,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Grid를 이용한 갤러리
-2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클릭 서브메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
-2. Close(x) 버튼 클릭시 화면 닫기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -874,10 +837,6 @@
   </si>
   <si>
     <t>Structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커서 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1450,6 +1409,37 @@
 2. 멘토 드릴 자료 정리하기
 3. 갤러리 이미지 클릭시 제목 출력할 수 있도록 코딩
 4. 푸터 전에 각 행성으로 이동할 수 있는 기능 구현해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 발표준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. position: fixed
+2. 스크롤 위치값에 따라 좌,우 위치 이동
+3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 행성 무한 슬라이드 방식+드래그 사용하여 이동
+2. 클릭시 해당 행성 서브페이지로 이동(데이터 전환)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행성이동(추가구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 갤러리 이미지 클릭시 화면 반투명 되면서 이미지 호출
+2. Close(x) 버튼 클릭시 화면 닫기
+(추가구현) 갤러리 이미지 클릭시 해당 사진에 대한 요약내용 (제목) 하단에 호출 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Grid를 이용한 갤러리
+2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출
+(추가구현) 행성 테두리에 구분감이 생기는 보더, 마우스 오버시 해당 보더가 짙어지는 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,7 +1737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2107,19 +2097,6 @@
       <right style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
@@ -2132,7 +2109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2223,9 +2200,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2289,6 +2263,51 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2319,58 +2338,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2380,15 +2354,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2427,759 +2392,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1034"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3444,11 +2656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3456,286 +2668,278 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.625" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="26" width="3.625" customWidth="1"/>
-    <col min="27" max="27" width="3.625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="20"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:26" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45678</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="21" t="s">
+        <v>45679</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="74" t="s">
+      <c r="F4" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="H4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="72">
+      <c r="I4" s="55">
         <v>45670</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-    </row>
-    <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="78"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="19">
+        <f>I4</f>
+        <v>45670</v>
+      </c>
       <c r="J5" s="19">
-        <f>J4</f>
-        <v>45670</v>
+        <f t="shared" ref="J5:M6" si="0">I5+1</f>
+        <v>45671</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" ref="K5:N6" si="0">J5+1</f>
-        <v>45671</v>
+        <f t="shared" si="0"/>
+        <v>45672</v>
       </c>
       <c r="L5" s="19">
         <f t="shared" si="0"/>
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="M5" s="19">
         <f t="shared" si="0"/>
+        <v>45674</v>
+      </c>
+      <c r="N5" s="19">
+        <f>M5+3</f>
+        <v>45677</v>
+      </c>
+      <c r="O5" s="19">
+        <f t="shared" ref="O5:R6" si="1">N5+1</f>
+        <v>45678</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="1"/>
+        <v>45679</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="1"/>
+        <v>45680</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="1"/>
+        <v>45681</v>
+      </c>
+      <c r="S5" s="19">
+        <f>R5+3</f>
+        <v>45684</v>
+      </c>
+      <c r="T5" s="19">
+        <f>S5+4</f>
+        <v>45688</v>
+      </c>
+      <c r="U5" s="19">
+        <f>T5+3</f>
+        <v>45691</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" ref="V5:Y6" si="2">U5+1</f>
+        <v>45692</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="2"/>
+        <v>45693</v>
+      </c>
+      <c r="X5" s="19">
+        <f t="shared" si="2"/>
+        <v>45694</v>
+      </c>
+      <c r="Y5" s="19">
+        <f t="shared" si="2"/>
+        <v>45695</v>
+      </c>
+      <c r="Z5" s="32">
+        <f>Y5+3</f>
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="30">
+        <f>I5</f>
+        <v>45670</v>
+      </c>
+      <c r="J6" s="30">
+        <f t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" si="0"/>
+        <v>45672</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="0"/>
         <v>45673</v>
       </c>
-      <c r="N5" s="19">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>45674</v>
       </c>
-      <c r="O5" s="19">
-        <f>N5+3</f>
+      <c r="N6" s="30">
+        <f>M6+3</f>
         <v>45677</v>
       </c>
-      <c r="P5" s="19">
-        <f t="shared" ref="P5:S6" si="1">O5+1</f>
+      <c r="O6" s="30">
+        <f t="shared" si="1"/>
         <v>45678</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="P6" s="30">
         <f t="shared" si="1"/>
         <v>45679</v>
       </c>
-      <c r="R5" s="19">
+      <c r="Q6" s="30">
         <f t="shared" si="1"/>
         <v>45680</v>
       </c>
-      <c r="S5" s="19">
+      <c r="R6" s="30">
         <f t="shared" si="1"/>
         <v>45681</v>
       </c>
-      <c r="T5" s="19">
-        <f>S5+3</f>
+      <c r="S6" s="30">
+        <f>R6+3</f>
         <v>45684</v>
       </c>
-      <c r="U5" s="19">
-        <f>T5+4</f>
+      <c r="T6" s="30">
+        <f>S6+4</f>
         <v>45688</v>
       </c>
-      <c r="V5" s="19">
-        <f>U5+3</f>
+      <c r="U6" s="30">
+        <f>T6+3</f>
         <v>45691</v>
       </c>
-      <c r="W5" s="19">
-        <f t="shared" ref="W5:Z6" si="2">V5+1</f>
+      <c r="V6" s="30">
+        <f t="shared" si="2"/>
         <v>45692</v>
       </c>
-      <c r="X5" s="19">
+      <c r="W6" s="30">
         <f t="shared" si="2"/>
         <v>45693</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="X6" s="30">
         <f t="shared" si="2"/>
         <v>45694</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Y6" s="30">
         <f t="shared" si="2"/>
         <v>45695</v>
       </c>
-      <c r="AA5" s="33">
-        <f>Z5+3</f>
+      <c r="Z6" s="33">
+        <f>Y6+3</f>
         <v>45698</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="31">
-        <f>J5</f>
-        <v>45670</v>
-      </c>
-      <c r="K6" s="31">
-        <f t="shared" si="0"/>
-        <v>45671</v>
-      </c>
-      <c r="L6" s="31">
-        <f t="shared" si="0"/>
-        <v>45672</v>
-      </c>
-      <c r="M6" s="31">
-        <f t="shared" si="0"/>
-        <v>45673</v>
-      </c>
-      <c r="N6" s="31">
-        <f t="shared" si="0"/>
-        <v>45674</v>
-      </c>
-      <c r="O6" s="31">
-        <f>N6+3</f>
-        <v>45677</v>
-      </c>
-      <c r="P6" s="31">
-        <f t="shared" si="1"/>
-        <v>45678</v>
-      </c>
-      <c r="Q6" s="31">
-        <f t="shared" si="1"/>
-        <v>45679</v>
-      </c>
-      <c r="R6" s="31">
-        <f t="shared" si="1"/>
-        <v>45680</v>
-      </c>
-      <c r="S6" s="31">
-        <f t="shared" si="1"/>
-        <v>45681</v>
-      </c>
-      <c r="T6" s="31">
-        <f>S6+3</f>
-        <v>45684</v>
-      </c>
-      <c r="U6" s="31">
-        <f>T6+4</f>
-        <v>45688</v>
-      </c>
-      <c r="V6" s="31">
-        <f>U6+3</f>
-        <v>45691</v>
-      </c>
-      <c r="W6" s="31">
-        <f t="shared" si="2"/>
-        <v>45692</v>
-      </c>
-      <c r="X6" s="31">
-        <f t="shared" si="2"/>
-        <v>45693</v>
-      </c>
-      <c r="Y6" s="31">
-        <f t="shared" si="2"/>
-        <v>45694</v>
-      </c>
-      <c r="Z6" s="31">
-        <f t="shared" si="2"/>
-        <v>45695</v>
-      </c>
-      <c r="AA6" s="34">
-        <f>Z6+3</f>
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="11">
+        <v>45670</v>
+      </c>
       <c r="E7" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="22">
-        <f>IF(F7="","",F7+1-E7)</f>
+      <c r="F7" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="22">
+        <f>IF(E7="","",E7+1-D7)</f>
         <v>26</v>
       </c>
-      <c r="I7" s="17">
+      <c r="H7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -3751,31 +2955,30 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="35"/>
-    </row>
-    <row r="8" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="34"/>
+    </row>
+    <row r="8" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="30"/>
+        <v>87</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45670</v>
+      </c>
       <c r="E8" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="22">
-        <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
+      <c r="F8" s="52"/>
+      <c r="G8" s="22">
+        <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>26</v>
       </c>
-      <c r="I8" s="17">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3792,31 +2995,30 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="35"/>
-    </row>
-    <row r="9" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="Z8" s="34"/>
+    </row>
+    <row r="9" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45670</v>
+      </c>
       <c r="E9" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="22">
+      <c r="F9" s="52"/>
+      <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I9" s="17">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3833,31 +3035,30 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="35"/>
-    </row>
-    <row r="10" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="34"/>
+    </row>
+    <row r="10" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45670</v>
+      </c>
       <c r="E10" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="22">
+      <c r="F10" s="52"/>
+      <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I10" s="17">
+      <c r="H10" s="17">
         <v>0</v>
       </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3874,31 +3075,30 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="35"/>
-    </row>
-    <row r="11" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="34"/>
+    </row>
+    <row r="11" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="30"/>
+        <v>91</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45670</v>
+      </c>
       <c r="E11" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="22">
+      <c r="F11" s="52"/>
+      <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I11" s="17">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3915,31 +3115,30 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="35"/>
-    </row>
-    <row r="12" spans="2:27" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="D12" s="11">
+        <v>45670</v>
+      </c>
       <c r="E12" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="22">
+      <c r="F12" s="52"/>
+      <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I12" s="18">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3956,31 +3155,30 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="36"/>
-    </row>
-    <row r="13" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z12" s="35"/>
+    </row>
+    <row r="13" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="11">
+        <v>45670</v>
+      </c>
       <c r="E13" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="22">
-        <f t="shared" ref="H13:H38" si="4">IF(F13="","",F13+1-E13)</f>
+      <c r="F13" s="52"/>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13:G37" si="4">IF(E13="","",E13+1-D13)</f>
         <v>26</v>
       </c>
-      <c r="I13" s="18">
+      <c r="H13" s="18">
         <v>0</v>
       </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3997,31 +3195,30 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="36"/>
-    </row>
-    <row r="14" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="35"/>
+    </row>
+    <row r="14" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45670</v>
+      </c>
       <c r="E14" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="22">
+      <c r="F14" s="52"/>
+      <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="I14" s="18">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4038,29 +3235,28 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="36"/>
-    </row>
-    <row r="15" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z14" s="35"/>
+    </row>
+    <row r="15" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="11">
+        <v>45670</v>
+      </c>
       <c r="E15" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="22">
+      <c r="F15" s="52"/>
+      <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="I15" s="18">
+      <c r="H15" s="18">
         <v>0</v>
       </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4077,31 +3273,30 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="36"/>
-    </row>
-    <row r="16" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z15" s="35"/>
+    </row>
+    <row r="16" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="11">
+        <v>45670</v>
+      </c>
       <c r="E16" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F16" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="22">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="18">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H16" s="18">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4118,31 +3313,30 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="36"/>
-    </row>
-    <row r="17" spans="2:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="D17" s="11">
+        <v>45670</v>
+      </c>
       <c r="E17" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F17" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="22">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="18">
+        <v>19</v>
+      </c>
+      <c r="H17" s="18">
         <v>0</v>
       </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4159,31 +3353,30 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="36"/>
-    </row>
-    <row r="18" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="D18" s="11">
+        <v>45670</v>
+      </c>
       <c r="E18" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F18" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="22">
-        <f t="shared" ref="H18:H28" si="5">IF(F18="","",F18+1-E18)</f>
-        <v>5</v>
-      </c>
-      <c r="I18" s="18">
+        <v>45688</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="22">
+        <f t="shared" ref="G18:G27" si="5">IF(E18="","",E18+1-D18)</f>
+        <v>19</v>
+      </c>
+      <c r="H18" s="18">
         <v>50</v>
       </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4200,29 +3393,28 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="36"/>
-    </row>
-    <row r="19" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="11">
+        <v>45670</v>
+      </c>
       <c r="E19" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F19" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I19" s="18">
+        <v>19</v>
+      </c>
+      <c r="H19" s="18">
         <v>50</v>
       </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4239,29 +3431,28 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="36"/>
-    </row>
-    <row r="20" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="35"/>
+    </row>
+    <row r="20" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="11">
+        <v>45670</v>
+      </c>
       <c r="E20" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F20" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I20" s="18">
+        <v>19</v>
+      </c>
+      <c r="H20" s="18">
         <v>50</v>
       </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -4278,29 +3469,28 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="36"/>
-    </row>
-    <row r="21" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="35"/>
+    </row>
+    <row r="21" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="11">
+        <v>45670</v>
+      </c>
       <c r="E21" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F21" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="18">
+        <v>19</v>
+      </c>
+      <c r="H21" s="18">
         <v>50</v>
       </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -4317,29 +3507,28 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="36"/>
-    </row>
-    <row r="22" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z21" s="35"/>
+    </row>
+    <row r="22" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="11">
+        <v>45670</v>
+      </c>
       <c r="E22" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F22" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="18">
+        <v>19</v>
+      </c>
+      <c r="H22" s="18">
         <v>50</v>
       </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -4356,29 +3545,28 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="36"/>
-    </row>
-    <row r="23" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="35"/>
+    </row>
+    <row r="23" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="11">
+        <v>45670</v>
+      </c>
       <c r="E23" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F23" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="18">
+        <v>19</v>
+      </c>
+      <c r="H23" s="18">
         <v>50</v>
       </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -4395,31 +3583,30 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="36"/>
-    </row>
-    <row r="24" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="Z23" s="35"/>
+    </row>
+    <row r="24" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="30"/>
+        <v>126</v>
+      </c>
+      <c r="D24" s="11">
+        <v>45670</v>
+      </c>
       <c r="E24" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F24" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="22">
+        <v>45688</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="18">
+        <v>19</v>
+      </c>
+      <c r="H24" s="18">
         <v>50</v>
       </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4436,31 +3623,30 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="36"/>
-    </row>
-    <row r="25" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="Z24" s="35"/>
+    </row>
+    <row r="25" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="30"/>
+        <v>125</v>
+      </c>
+      <c r="D25" s="11">
+        <v>45670</v>
+      </c>
       <c r="E25" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F25" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="22">
-        <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
-        <v>5</v>
-      </c>
-      <c r="I25" s="18">
+        <v>45688</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="22">
+        <f t="shared" ref="G25" si="6">IF(E25="","",E25+1-D25)</f>
+        <v>19</v>
+      </c>
+      <c r="H25" s="18">
         <v>10</v>
       </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -4477,31 +3663,30 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="36"/>
-    </row>
-    <row r="26" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="Z25" s="35"/>
+    </row>
+    <row r="26" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="D26" s="11">
+        <v>45670</v>
+      </c>
       <c r="E26" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F26" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="22">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
+        <v>45688</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="22">
+        <f t="shared" ref="G26" si="7">IF(E26="","",E26+1-D26)</f>
+        <v>19</v>
+      </c>
+      <c r="H26" s="18">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4518,31 +3703,28 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="36"/>
-    </row>
-    <row r="27" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>111</v>
+      <c r="Z26" s="35"/>
+    </row>
+    <row r="27" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45691</v>
+      </c>
       <c r="E27" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F27" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="22">
+        <v>45693</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="22">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -4559,29 +3741,30 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="36"/>
-    </row>
-    <row r="28" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z27" s="35"/>
+    </row>
+    <row r="28" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="D28" s="11">
+        <v>45691</v>
+      </c>
       <c r="E28" s="11">
-        <v>45677</v>
-      </c>
-      <c r="F28" s="11">
-        <v>45678</v>
-      </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="22">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I28" s="18"/>
+        <v>45693</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -4598,31 +3781,30 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="36"/>
-    </row>
-    <row r="29" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z28" s="35"/>
+    </row>
+    <row r="29" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="D29" s="11">
+        <v>45691</v>
+      </c>
       <c r="E29" s="11">
-        <v>45677</v>
-      </c>
-      <c r="F29" s="11">
-        <v>45678</v>
-      </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="22">
+        <v>45693</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I29" s="18">
+        <v>3</v>
+      </c>
+      <c r="H29" s="18">
         <v>0</v>
       </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -4639,31 +3821,30 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="36"/>
-    </row>
-    <row r="30" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z29" s="35"/>
+    </row>
+    <row r="30" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="D30" s="11">
+        <v>45691</v>
+      </c>
       <c r="E30" s="11">
-        <v>45677</v>
-      </c>
-      <c r="F30" s="11">
-        <v>45678</v>
-      </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="22">
+        <v>45693</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I30" s="18">
+        <v>3</v>
+      </c>
+      <c r="H30" s="18">
         <v>0</v>
       </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4680,31 +3861,30 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="36"/>
-    </row>
-    <row r="31" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z30" s="35"/>
+    </row>
+    <row r="31" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="D31" s="11">
+        <v>45691</v>
+      </c>
       <c r="E31" s="11">
-        <v>45679</v>
-      </c>
-      <c r="F31" s="11">
-        <v>45680</v>
-      </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="22">
+        <v>45693</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I31" s="18">
+        <v>3</v>
+      </c>
+      <c r="H31" s="18">
         <v>0</v>
       </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4721,31 +3901,30 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="36"/>
-    </row>
-    <row r="32" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="D32" s="11">
+        <v>45691</v>
+      </c>
       <c r="E32" s="11">
-        <v>45679</v>
-      </c>
-      <c r="F32" s="11">
-        <v>45680</v>
-      </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="22">
+        <v>45693</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="22">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I32" s="18">
+        <v>3</v>
+      </c>
+      <c r="H32" s="18">
         <v>0</v>
       </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4762,31 +3941,30 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="36"/>
-    </row>
-    <row r="33" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z32" s="35"/>
+    </row>
+    <row r="33" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45691</v>
+      </c>
       <c r="E33" s="11">
-        <v>45681</v>
-      </c>
-      <c r="F33" s="11">
-        <v>45684</v>
-      </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="22">
+        <v>45693</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="22">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I33" s="18">
+        <v>3</v>
+      </c>
+      <c r="H33" s="18">
         <v>0</v>
       </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4803,31 +3981,30 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="36"/>
-    </row>
-    <row r="34" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z33" s="35"/>
+    </row>
+    <row r="34" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11">
+        <v>45694</v>
+      </c>
       <c r="E34" s="11">
-        <v>45681</v>
-      </c>
-      <c r="F34" s="11">
-        <v>45684</v>
-      </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="22">
+        <v>45698</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="22">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I34" s="18">
+        <v>5</v>
+      </c>
+      <c r="H34" s="18">
         <v>0</v>
       </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4844,31 +4021,28 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="36"/>
-    </row>
-    <row r="35" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
+      <c r="Z34" s="35"/>
+    </row>
+    <row r="35" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="11">
+        <v>45670</v>
+      </c>
       <c r="E35" s="11">
-        <v>45688</v>
-      </c>
-      <c r="F35" s="11">
-        <v>45695</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="22">
+        <v>45698</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="22">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I35" s="18">
+        <v>29</v>
+      </c>
+      <c r="H35" s="18">
         <v>0</v>
       </c>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4885,29 +4059,28 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="36"/>
-    </row>
-    <row r="36" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
+      <c r="Z35" s="35"/>
+    </row>
+    <row r="36" spans="2:26" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="11">
+        <v>45670</v>
+      </c>
       <c r="E36" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F36" s="11">
         <v>45698</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="22">
+      <c r="F36" s="45"/>
+      <c r="G36" s="22">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="I36" s="18">
+      <c r="H36" s="18">
         <v>0</v>
       </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4924,29 +4097,28 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="36"/>
-    </row>
-    <row r="37" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="Z36" s="35"/>
+    </row>
+    <row r="37" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="11">
+        <v>45670</v>
+      </c>
       <c r="E37" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F37" s="11">
         <v>45698</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="22">
+      <c r="F37" s="45"/>
+      <c r="G37" s="22">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="I37" s="18">
+      <c r="H37" s="18">
         <v>0</v>
       </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4963,104 +4135,35 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="36"/>
-    </row>
-    <row r="38" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="11">
-        <v>45670</v>
-      </c>
-      <c r="F38" s="11">
-        <v>45698</v>
-      </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="22">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="36"/>
+      <c r="Z37" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G16:G34"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="11">
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F16:F33"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="I4:Z4"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J5:AA38">
+  <conditionalFormatting sqref="I5:Z37">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>J$5=$F$3</formula>
+      <formula>I$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:AA38">
+  <conditionalFormatting sqref="I7:Z37">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(J$5&gt;=$E7,J$5&lt;=$F7)</formula>
+      <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D38 D7:D27">
-    <cfRule type="dataBar" priority="67">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A1360671-EAB7-496F-A6C6-7156D32B39EE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71F59B32-8F1F-4736-8B79-6FF0ADE0672A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I38">
-    <cfRule type="dataBar" priority="100">
+  <conditionalFormatting sqref="H7:H37">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5076,287 +4179,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O5:O6 U5:U6" formula="1"/>
+    <ignoredError sqref="N5:N6 T5:T6" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId4" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId5" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId6" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId7" name="Check Box 10">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId8" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId9" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId10" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId11" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId12" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId14" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A1360671-EAB7-496F-A6C6-7156D32B39EE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D29:D38 D7:D27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71F59B32-8F1F-4736-8B79-6FF0ADE0672A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E6E96A8-9112-4728-A340-025BFCD2777D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -5368,7 +4195,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I7:I38</xm:sqref>
+          <xm:sqref>H7:H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5399,21 +4226,21 @@
     <col min="12" max="12" width="50.75" customWidth="1"/>
     <col min="13" max="13" width="48.25" bestFit="1" customWidth="1"/>
     <col min="14" max="23" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -5423,247 +4250,247 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="37" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="83" t="s">
-        <v>22</v>
+      <c r="B4" s="79"/>
+      <c r="C4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="76" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="84"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="77"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="85"/>
+        <v>22</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="78"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="H7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="I7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="J7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="L7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="M7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="O7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="P7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="Q7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="R7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="T7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="U7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="26" t="s">
+      <c r="V7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="26" t="s">
+      <c r="W7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="26" t="s">
+      <c r="X7" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="335.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>91</v>
-      </c>
       <c r="G8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>115</v>
+      <c r="J8" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="K8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -5675,17 +4502,17 @@
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
-      <c r="X8" s="39"/>
+      <c r="X8" s="38"/>
     </row>
     <row r="9" spans="1:24" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -5704,7 +4531,7 @@
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
-      <c r="X9" s="39"/>
+      <c r="X9" s="38"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H10" s="12"/>
@@ -5723,231 +4550,231 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="40"/>
+      <c r="X10" s="39"/>
     </row>
     <row r="11" spans="1:24" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="E11"/>
-      <c r="X11" s="40"/>
+      <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="83" t="s">
-        <v>22</v>
+      <c r="B12" s="79"/>
+      <c r="C12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="76" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="81"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="84"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="77"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="82"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="85"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="78"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="J15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="K15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="L15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="T15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="U15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="26" t="s">
+      <c r="V15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="26" t="s">
+      <c r="W15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="W15" s="26" t="s">
+      <c r="X15" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>107</v>
+      <c r="G16" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>119</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -5959,490 +4786,490 @@
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
-      <c r="X16" s="39"/>
+      <c r="X16" s="38"/>
     </row>
     <row r="17" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X17" s="40"/>
+      <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
-      <c r="C18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="83" t="s">
-        <v>22</v>
+      <c r="B18" s="79"/>
+      <c r="C18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="76" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="84"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="77"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="82"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="85"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="T21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="26" t="s">
+      <c r="U21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="26" t="s">
+      <c r="V21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="V21" s="26" t="s">
+      <c r="W21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="W21" s="26" t="s">
+      <c r="X21" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="X21" s="38" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:24" s="12" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="41"/>
+      <c r="L22" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="40"/>
     </row>
     <row r="23" spans="2:24" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="38"/>
     </row>
     <row r="24" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X24" s="40"/>
+      <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="83" t="s">
-        <v>22</v>
+      <c r="B25" s="79"/>
+      <c r="C25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="76" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="84"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="77"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="82"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="85"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="O28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="P28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="26" t="s">
+      <c r="Q28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="26" t="s">
+      <c r="R28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="S28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="S28" s="26" t="s">
+      <c r="T28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="T28" s="26" t="s">
+      <c r="U28" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="U28" s="26" t="s">
+      <c r="V28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="V28" s="26" t="s">
+      <c r="W28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="W28" s="26" t="s">
+      <c r="X28" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="X28" s="38" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:24" s="12" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="47"/>
+        <v>79</v>
+      </c>
+      <c r="F29" s="46"/>
       <c r="G29" s="27" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
@@ -6456,90 +5283,13 @@
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
-      <c r="X29" s="42"/>
+      <c r="X29" s="41"/>
     </row>
     <row r="30" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6556,6 +5306,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250121.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250121.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="128">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,10 +367,6 @@
   </si>
   <si>
     <t>Mercury 와 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 1. 행성 반대편에서 타이핑 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1207,12 +1203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 질문 및 피드백 진행 후 정리
-2. 갤러리 서브메뉴 미디어 쿼리
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질문
 1. 타이핑 스크롤 애니메이션 실행 순서
 2. json 파일 만들었는데 그 다음에는 무엇을 해야할지 잘 모르겠음. (이번에 배운 스토어와 라우터를 사용하고 싶음.)
@@ -1324,13 +1314,6 @@
 - html,scss,js 대문자 클래스 소문자로 변경
 - json 데이터 수정
 (대문자-&gt; 소문자 , 줄바꿈 스트링 입력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문
-1.제이슨 데이터 불러오기
--키값을 로드해서 대문자로 변환하는 방법?
--타이틀 불러오는 방법..?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1404,21 +1387,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 제이슨 줄바꿈 입력 마저 진행 후에 텍스트 미디어쿼리 재정비
-+ structure 섹션 위치값 연결하기
-2. 멘토 드릴 자료 정리하기
-3. 갤러리 이미지 클릭시 제목 출력할 수 있도록 코딩
-4. 푸터 전에 각 행성으로 이동할 수 있는 기능 구현해야 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트 및 발표준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. position: fixed
-2. 스크롤 위치값에 따라 좌,우 위치 이동
-3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1440,6 +1409,188 @@
     <t>1. Grid를 이용한 갤러리
 2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출
 (추가구현) 행성 테두리에 구분감이 생기는 보더, 마우스 오버시 해당 보더가 짙어지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. position: fixed
+2. 컨텐츠에 따라 좌,우 위치 이동
+3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통
+1. 행성 반대편에서 타이핑 애니메이션
+2. 행성에 따라 각 행성에 맞는 데이터 부여
+3. 스크롤 위치값에 따라 타이핑 애니메이션 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>제이슨 줄바꿈 입력 마저 진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 후에 텍스트 미디어쿼리 재정비
++ structure 섹션 위치값 연결하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 멘토 드릴 자료 정리하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. 갤러리 이미지 클릭시 제목 출력할 수 있도록 코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4. 푸터 전에 각 행성으로 이동할 수 있는 기능 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(이월)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 질문 및 피드백 진행 후 정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 갤러리 서브메뉴 미디어 쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문
+1.제이슨 데이터 불러오기
+-제이슨 객체 안에 있는 각 타이틀 불러오는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 멘토 피드백 정리
+1. 텍스트 미디어쿼리 정비
++ 애니메이션 structure 센션 위치값 연결
+2. 갤러리 이미지 클릭시 제목 출력 기능구현
+3. 갤러리 서브메뉴 미디어 쿼리 
+4. 푸터 전에 각 행성으로 이동 기능 구현
+5. 커서에 이미지 따라다닐 수 있도록 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2109,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2263,6 +2414,45 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2299,43 +2489,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2347,14 +2507,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2659,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2681,11 +2853,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -2711,56 +2883,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="68">
         <v>45670</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="61"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -2835,13 +3007,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="62"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -2926,8 +3098,8 @@
       <c r="E7" s="11">
         <v>45695</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>70</v>
+      <c r="F7" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="G7" s="22">
         <f>IF(E7="","",E7+1-D7)</f>
@@ -2959,10 +3131,10 @@
     </row>
     <row r="8" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="11">
         <v>45670</v>
@@ -2970,7 +3142,7 @@
       <c r="E8" s="11">
         <v>45695</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>26</v>
@@ -2999,10 +3171,10 @@
     </row>
     <row r="9" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="11">
         <v>45670</v>
@@ -3010,7 +3182,7 @@
       <c r="E9" s="11">
         <v>45695</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3039,10 +3211,10 @@
     </row>
     <row r="10" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="D10" s="11">
         <v>45670</v>
@@ -3050,7 +3222,7 @@
       <c r="E10" s="11">
         <v>45695</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3079,10 +3251,10 @@
     </row>
     <row r="11" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="11">
         <v>45670</v>
@@ -3090,7 +3262,7 @@
       <c r="E11" s="11">
         <v>45695</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3119,10 +3291,10 @@
     </row>
     <row r="12" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="11">
         <v>45670</v>
@@ -3130,7 +3302,7 @@
       <c r="E12" s="11">
         <v>45695</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3170,7 +3342,7 @@
       <c r="E13" s="11">
         <v>45695</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G37" si="4">IF(E13="","",E13+1-D13)</f>
         <v>26</v>
@@ -3199,10 +3371,10 @@
     </row>
     <row r="14" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="11">
         <v>45670</v>
@@ -3210,7 +3382,7 @@
       <c r="E14" s="11">
         <v>45695</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3248,7 +3420,7 @@
       <c r="E15" s="11">
         <v>45695</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3286,8 +3458,8 @@
       <c r="E16" s="11">
         <v>45688</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>71</v>
+      <c r="F16" s="64" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="4"/>
@@ -3328,13 +3500,13 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="22">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="H17" s="18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3355,12 +3527,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
+      <c r="C18" s="83" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="11">
         <v>45670</v>
@@ -3368,7 +3540,7 @@
       <c r="E18" s="11">
         <v>45688</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18:G27" si="5">IF(E18="","",E18+1-D18)</f>
         <v>19</v>
@@ -3399,14 +3571,14 @@
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="11">
         <v>45670</v>
       </c>
       <c r="E19" s="11">
         <v>45688</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3435,16 +3607,16 @@
     </row>
     <row r="20" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C20" s="84"/>
       <c r="D20" s="11">
         <v>45670</v>
       </c>
       <c r="E20" s="11">
         <v>45688</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3473,16 +3645,16 @@
     </row>
     <row r="21" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C21" s="84"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45688</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3511,16 +3683,16 @@
     </row>
     <row r="22" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C22" s="84"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45688</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3549,16 +3721,16 @@
     </row>
     <row r="23" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="C23" s="85"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45688</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3590,7 +3762,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D24" s="11">
         <v>45670</v>
@@ -3598,7 +3770,7 @@
       <c r="E24" s="11">
         <v>45688</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="22">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3627,10 +3799,10 @@
     </row>
     <row r="25" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D25" s="11">
         <v>45670</v>
@@ -3638,7 +3810,7 @@
       <c r="E25" s="11">
         <v>45688</v>
       </c>
-      <c r="F25" s="52"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="22">
         <f t="shared" ref="G25" si="6">IF(E25="","",E25+1-D25)</f>
         <v>19</v>
@@ -3665,12 +3837,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="35"/>
     </row>
-    <row r="26" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D26" s="11">
         <v>45670</v>
@@ -3678,7 +3850,7 @@
       <c r="E26" s="11">
         <v>45688</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="22">
         <f t="shared" ref="G26" si="7">IF(E26="","",E26+1-D26)</f>
         <v>19</v>
@@ -3705,11 +3877,11 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="35"/>
     </row>
-    <row r="27" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="11">
@@ -3718,7 +3890,7 @@
       <c r="E27" s="11">
         <v>45693</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3743,20 +3915,18 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="35"/>
     </row>
-    <row r="28" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C28" s="87"/>
       <c r="D28" s="11">
         <v>45691</v>
       </c>
       <c r="E28" s="11">
         <v>45693</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3783,20 +3953,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="35"/>
     </row>
-    <row r="29" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C29" s="87"/>
       <c r="D29" s="11">
         <v>45691</v>
       </c>
       <c r="E29" s="11">
         <v>45693</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3823,20 +3991,18 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="35"/>
     </row>
-    <row r="30" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C30" s="87"/>
       <c r="D30" s="11">
         <v>45691</v>
       </c>
       <c r="E30" s="11">
         <v>45693</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3863,20 +4029,18 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="35"/>
     </row>
-    <row r="31" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C31" s="87"/>
       <c r="D31" s="11">
         <v>45691</v>
       </c>
       <c r="E31" s="11">
         <v>45693</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3903,20 +4067,18 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="35"/>
     </row>
-    <row r="32" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C32" s="87"/>
       <c r="D32" s="11">
         <v>45691</v>
       </c>
       <c r="E32" s="11">
         <v>45693</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3944,19 +4106,17 @@
       <c r="Z32" s="35"/>
     </row>
     <row r="33" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C33" s="88"/>
       <c r="D33" s="11">
         <v>45691</v>
       </c>
       <c r="E33" s="11">
         <v>45693</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3985,7 +4145,7 @@
     </row>
     <row r="34" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11">
@@ -3995,7 +4155,7 @@
         <v>45698</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
@@ -4138,18 +4298,20 @@
       <c r="Z37" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
+  <mergeCells count="13">
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C27:C33"/>
     <mergeCell ref="F16:F33"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z37">
@@ -4207,9 +4369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M23" sqref="M23"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4225,22 +4387,23 @@
     <col min="10" max="11" width="48.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.75" customWidth="1"/>
     <col min="13" max="13" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4263,136 +4426,136 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="76" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="80"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>24</v>
@@ -4460,37 +4623,37 @@
         <v>44</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -4512,7 +4675,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -4558,133 +4721,133 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="76" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="81"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>24</v>
@@ -4756,25 +4919,25 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>99</v>
-      </c>
       <c r="I16" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>119</v>
-      </c>
       <c r="M16" s="24" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
@@ -4792,133 +4955,133 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="76" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>24</v>
@@ -4986,37 +5149,39 @@
         <v>47</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="43"/>
+        <v>124</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
@@ -5036,7 +5201,7 @@
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -5061,133 +5226,133 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="76" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="81"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>24</v>
@@ -5255,21 +5420,21 @@
         <v>49</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="46"/>
       <c r="G29" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
@@ -5290,6 +5455,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5306,83 +5548,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
